--- a/stock_price/vt/vt_data.xlsx
+++ b/stock_price/vt/vt_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/kashimataichi/play_python/web_scraping/stock_price/vt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3D24FA-3AE1-D74A-9108-8050A3922EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D826908-7B7F-4B46-94D5-2CDF7BB785FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="1060" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vt_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>実行年月日</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 23.937 </t>
+  </si>
+  <si>
+    <t>2022/5/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,985,040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5.98% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.63% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.49% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -12.38% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.29 - 94.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.070 </t>
   </si>
 </sst>
 </file>
@@ -468,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +583,41 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stock_price/vt/vt_data.xlsx
+++ b/stock_price/vt/vt_data.xlsx
@@ -1,156 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/kashimataichi/play_python/web_scraping/stock_price/vt/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D826908-7B7F-4B46-94D5-2CDF7BB785FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="1060" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="vt_data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vt_data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>実行年月日</t>
-  </si>
-  <si>
-    <t>始値</t>
-  </si>
-  <si>
-    <t>前日終値</t>
-  </si>
-  <si>
-    <t>出来高</t>
-  </si>
-  <si>
-    <t>1年TR</t>
-  </si>
-  <si>
-    <t>3年TR</t>
-  </si>
-  <si>
-    <t>5年TR</t>
-  </si>
-  <si>
-    <t>年初来R</t>
-  </si>
-  <si>
-    <t>日次安値-高値レンジ</t>
-  </si>
-  <si>
-    <t>52週レンジ</t>
-  </si>
-  <si>
-    <t>資産総額 (十億 USD)</t>
-  </si>
-  <si>
-    <t>2022/5/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12,751,768 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.05% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.78% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.30% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -12.85% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.59 - 93.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.59 - 109.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.937 </t>
-  </si>
-  <si>
-    <t>2022/5/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,985,040 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5.98% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.63% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.49% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -12.38% </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.29 - 94.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24.070 </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -172,32 +66,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -497,129 +450,827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col width="10.85546875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10.85546875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.85546875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="14.140625" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>実行年月日</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>始値</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>前日終値</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>出来高</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>1年TR</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>3年TR</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>5年TR</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>年初来R</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>日次安値-高値レンジ</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>52週レンジ</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>資産総額 (十億 USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/3</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 92.97 </t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.09 </t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12,751,768 </t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.05% </t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.78% </t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.30% </t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -12.85% </t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.59 - 93.72 </t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.59 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.937 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/4</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.65 </t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.39 </t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2,985,040 </t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.98% </t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.63% </t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.49% </t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -12.38% </t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.29 - 94.25 </t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.59 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24.070 </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/5</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94.94 </t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 96.14 </t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 200,572 </t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.78% </t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.48% </t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.96% </t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -10.28% </t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94.70 - 94.97 </t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.59 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24.619 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/6</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94.94 </t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 96.14 </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10,992,416 </t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.51% </t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.21% </t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.05% </t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -13.34% </t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.91 - 94.97 </t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.59 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.791 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/7</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 92.21 </t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 92.86 </t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7,149,285 </t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.05% </t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.12% </t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.83% </t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -14.20% </t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90.96 - 92.64 </t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90.96 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.560 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/10</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90.54 </t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.94 </t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4,630,438 </t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -11.93% </t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.72% </t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.16% </t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -17.05% </t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88.60 - 90.68 </t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88.60 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 22.800 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/14</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89.02 </t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 87.93 </t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6,026,937 </t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.26% </t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.13% </t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.93% </t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -15.67% </t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88.95 - 90.53 </t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86.64 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 22.547 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2022/5/25</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89.90 </t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90.75 </t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2,387,013 </t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -10.27% </t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.68% </t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.22% </t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -16.03% </t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88.77 - 90.23 </t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86.64 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.035 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2022/6/4</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.62 </t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94.73 </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1,837,758 </t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.67% </t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.26% </t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.03% </t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -13.01% </t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.03 - 93.86 </t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86.64 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.895 </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2022/6/11</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89.88 </t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91.22 </t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4,031,197 </t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -10.28% </t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.52% </t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.35% </t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -17.10% </t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 88.73 - 89.94 </t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86.64 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 22.794 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2022/6/15</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 85.88 </t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 85.52 </t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3,667,287 </t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -16.45% </t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.03% </t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.86% </t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -20.44% </t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 84.56 - 86.13 </t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 84.56 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21.927 </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2022/6/19</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 84.03 </t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 83.88 </t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2,705,631 </t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -17.19% </t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.50% </t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.55% </t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -21.64% </t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 83.24 - 84.71 </t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 83.24 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21.547 </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022/6/26</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 85.94 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 85.15 </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2,559,698 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -13.50% </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.50% </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.64% </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -17.57% </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 85.94 - 87.73 </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 83.24 - 109.39 </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 22.456 </t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>